--- a/Bond_Mutual_funds.xlsx
+++ b/Bond_Mutual_funds.xlsx
@@ -25,11 +25,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <i val="1"/>
       <sz val="22"/>
     </font>
     <font>
-      <i val="1"/>
+      <b val="1"/>
       <sz val="22"/>
     </font>
   </fonts>
@@ -42,12 +42,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000ff00"/>
+        <fgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
+        <fgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,23 +87,23 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,19 +1564,19 @@
         </is>
       </c>
       <c r="AO7" s="15" t="n">
-        <v>9.74</v>
+        <v>9.42</v>
       </c>
       <c r="AP7" s="9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ7" s="9" t="n">
-        <v>68.75</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="AR7" s="9" t="n">
-        <v>19.47</v>
+        <v>20.13</v>
       </c>
       <c r="AS7" s="9" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1698,22 +1698,22 @@
       </c>
       <c r="AM8" s="10" t="n"/>
       <c r="AN8" s="9" t="n">
-        <v>4.21</v>
+        <v>5.82</v>
       </c>
       <c r="AO8" s="9" t="n">
-        <v>5.85</v>
+        <v>5.18</v>
       </c>
       <c r="AP8" s="9" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="AQ8" s="9" t="n">
-        <v>32.91</v>
+        <v>32.35</v>
       </c>
       <c r="AR8" s="9" t="n">
-        <v>47.19</v>
+        <v>46.81</v>
       </c>
       <c r="AS8" s="15" t="n">
-        <v>9.289999999999999</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -2195,10 +2195,10 @@
       </c>
       <c r="J12" s="10" t="n"/>
       <c r="K12" s="12" t="n">
-        <v>10.29</v>
+        <v>9.32</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>6.85</v>
+        <v>6.81</v>
       </c>
       <c r="M12" s="10" t="inlineStr">
         <is>
@@ -2428,25 +2428,23 @@
         <v>0.78</v>
       </c>
       <c r="AM13" s="10" t="n"/>
-      <c r="AN13" s="9" t="n">
-        <v>3.78</v>
+      <c r="AN13" s="15" t="n">
+        <v>7.3</v>
       </c>
       <c r="AO13" s="9" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AP13" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>2.79</v>
+      </c>
+      <c r="AP13" s="9" t="n">
+        <v>0.32</v>
       </c>
       <c r="AQ13" s="9" t="n">
-        <v>39.9</v>
+        <v>39.78</v>
       </c>
       <c r="AR13" s="9" t="n">
-        <v>43.75</v>
+        <v>40.93</v>
       </c>
       <c r="AS13" s="15" t="n">
-        <v>9.51</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3257,7 +3255,7 @@
       </c>
       <c r="AM19" s="10" t="n"/>
       <c r="AN19" s="9" t="n">
-        <v>3.17</v>
+        <v>2.8</v>
       </c>
       <c r="AO19" s="10" t="inlineStr">
         <is>
@@ -3270,13 +3268,13 @@
         </is>
       </c>
       <c r="AQ19" s="9" t="n">
-        <v>78.23</v>
+        <v>77.81</v>
       </c>
       <c r="AR19" s="9" t="n">
-        <v>13.8</v>
+        <v>14.89</v>
       </c>
       <c r="AS19" s="9" t="n">
-        <v>4.81</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -4433,10 +4431,10 @@
       </c>
       <c r="AM27" s="10" t="n"/>
       <c r="AN27" s="9" t="n">
-        <v>4.53</v>
+        <v>3.95</v>
       </c>
       <c r="AO27" s="9" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="AP27" s="10" t="inlineStr">
         <is>
@@ -4444,13 +4442,13 @@
         </is>
       </c>
       <c r="AQ27" s="9" t="n">
-        <v>71.64</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="AR27" s="9" t="n">
-        <v>22.79</v>
+        <v>23.73</v>
       </c>
       <c r="AS27" s="9" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="28">
@@ -4534,8 +4532,10 @@
       <c r="Z28" s="12" t="n">
         <v>3.52</v>
       </c>
-      <c r="AA28" s="12" t="n">
-        <v>0.47</v>
+      <c r="AA28" s="10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="AB28" s="10" t="n"/>
       <c r="AC28" s="9" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="AM45" s="10" t="n"/>
       <c r="AN45" s="9" t="n">
-        <v>6.22</v>
+        <v>6.56</v>
       </c>
       <c r="AO45" s="10" t="inlineStr">
         <is>
@@ -7004,13 +7004,13 @@
         </is>
       </c>
       <c r="AQ45" s="9" t="n">
-        <v>76.54000000000001</v>
+        <v>76.04000000000001</v>
       </c>
       <c r="AR45" s="9" t="n">
-        <v>15.32</v>
+        <v>15.47</v>
       </c>
       <c r="AS45" s="9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="46">
@@ -8501,10 +8501,10 @@
       </c>
       <c r="J56" s="10" t="n"/>
       <c r="K56" s="12" t="n">
-        <v>16.22</v>
+        <v>15.13</v>
       </c>
       <c r="L56" s="12" t="n">
-        <v>7.55</v>
+        <v>7.33</v>
       </c>
       <c r="M56" s="10" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>7.4</v>
       </c>
       <c r="AA56" s="12" t="n">
-        <v>6.91</v>
+        <v>6.67</v>
       </c>
       <c r="AB56" s="10" t="n"/>
       <c r="AC56" s="16" t="n">
@@ -8754,19 +8754,19 @@
         </is>
       </c>
       <c r="AO57" s="9" t="n">
-        <v>1.53</v>
+        <v>2.71</v>
       </c>
       <c r="AP57" s="9" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="AQ57" s="9" t="n">
-        <v>81.72</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="AR57" s="9" t="n">
-        <v>14.3</v>
+        <v>14.24</v>
       </c>
       <c r="AS57" s="9" t="n">
-        <v>2.23</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="58">
@@ -10171,22 +10171,22 @@
       </c>
       <c r="AM67" s="10" t="n"/>
       <c r="AN67" s="9" t="n">
-        <v>3.09</v>
+        <v>3.81</v>
       </c>
       <c r="AO67" s="9" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AP67" s="9" t="n">
         <v>0.14</v>
       </c>
       <c r="AQ67" s="9" t="n">
-        <v>80.13</v>
+        <v>79.14</v>
       </c>
       <c r="AR67" s="9" t="n">
-        <v>13.69</v>
+        <v>13.58</v>
       </c>
       <c r="AS67" s="9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="68">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="AM74" s="10" t="n"/>
       <c r="AN74" s="9" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="AO74" s="9" t="n">
         <v>0.18</v>
@@ -11223,13 +11223,13 @@
         </is>
       </c>
       <c r="AQ74" s="9" t="n">
-        <v>77.58</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="AR74" s="9" t="n">
-        <v>18.94</v>
+        <v>20.39</v>
       </c>
       <c r="AS74" s="9" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="75">
@@ -11480,10 +11480,10 @@
       </c>
       <c r="AM76" s="10" t="n"/>
       <c r="AN76" s="9" t="n">
-        <v>3.08</v>
+        <v>2.56</v>
       </c>
       <c r="AO76" s="9" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="AP76" s="10" t="inlineStr">
         <is>
@@ -11491,13 +11491,13 @@
         </is>
       </c>
       <c r="AQ76" s="9" t="n">
-        <v>74.34</v>
+        <v>74.61</v>
       </c>
       <c r="AR76" s="9" t="n">
-        <v>14.28</v>
+        <v>14.47</v>
       </c>
       <c r="AS76" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="77">
@@ -14499,12 +14499,10 @@
       </c>
       <c r="AM97" s="10" t="n"/>
       <c r="AN97" s="9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO97" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>6.56</v>
+      </c>
+      <c r="AO97" s="9" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AP97" s="10" t="inlineStr">
         <is>
@@ -14512,10 +14510,10 @@
         </is>
       </c>
       <c r="AQ97" s="9" t="n">
-        <v>76.41</v>
+        <v>77.44</v>
       </c>
       <c r="AR97" s="9" t="n">
-        <v>16.5</v>
+        <v>15.53</v>
       </c>
       <c r="AS97" s="9" t="n">
         <v>0.48</v>
@@ -14930,7 +14928,7 @@
       </c>
       <c r="AM100" s="10" t="n"/>
       <c r="AN100" s="9" t="n">
-        <v>5.51</v>
+        <v>3.1</v>
       </c>
       <c r="AO100" s="9" t="n">
         <v>0.06</v>
@@ -14941,13 +14939,13 @@
         </is>
       </c>
       <c r="AQ100" s="9" t="n">
-        <v>86.36</v>
+        <v>88.62</v>
       </c>
       <c r="AR100" s="9" t="n">
-        <v>5.88</v>
+        <v>6.19</v>
       </c>
       <c r="AS100" s="9" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="101">
@@ -16026,7 +16024,7 @@
       </c>
       <c r="AM108" s="10" t="n"/>
       <c r="AN108" s="9" t="n">
-        <v>2.24</v>
+        <v>6.21</v>
       </c>
       <c r="AO108" s="10" t="inlineStr">
         <is>
@@ -16039,13 +16037,13 @@
         </is>
       </c>
       <c r="AQ108" s="9" t="n">
-        <v>80.48999999999999</v>
+        <v>77.81</v>
       </c>
       <c r="AR108" s="9" t="n">
-        <v>13.13</v>
+        <v>11.94</v>
       </c>
       <c r="AS108" s="9" t="n">
-        <v>4.14</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="109">
@@ -16475,24 +16473,22 @@
       </c>
       <c r="AM111" s="10" t="n"/>
       <c r="AN111" s="9" t="n">
-        <v>5.91</v>
+        <v>2.21</v>
       </c>
       <c r="AO111" s="9" t="n">
         <v>0.08</v>
       </c>
-      <c r="AP111" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AP111" s="9" t="n">
+        <v>0.11</v>
       </c>
       <c r="AQ111" s="9" t="n">
-        <v>81.73999999999999</v>
+        <v>85.02</v>
       </c>
       <c r="AR111" s="9" t="n">
-        <v>9.07</v>
+        <v>9.42</v>
       </c>
       <c r="AS111" s="9" t="n">
-        <v>3.21</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="112">
@@ -16898,7 +16894,7 @@
       </c>
       <c r="AM114" s="10" t="n"/>
       <c r="AN114" s="9" t="n">
-        <v>5.87</v>
+        <v>5.17</v>
       </c>
       <c r="AO114" s="10" t="inlineStr">
         <is>
@@ -16911,13 +16907,13 @@
         </is>
       </c>
       <c r="AQ114" s="9" t="n">
-        <v>70.53</v>
+        <v>74.02</v>
       </c>
       <c r="AR114" s="9" t="n">
-        <v>18.56</v>
+        <v>16.36</v>
       </c>
       <c r="AS114" s="9" t="n">
-        <v>5.05</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="115">
@@ -17327,7 +17323,7 @@
       </c>
       <c r="AM117" s="10" t="n"/>
       <c r="AN117" s="15" t="n">
-        <v>12.39</v>
+        <v>12.71</v>
       </c>
       <c r="AO117" s="10" t="inlineStr">
         <is>
@@ -17340,13 +17336,13 @@
         </is>
       </c>
       <c r="AQ117" s="9" t="n">
-        <v>76.39</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="AR117" s="9" t="n">
-        <v>19.79</v>
+        <v>18.9</v>
       </c>
       <c r="AS117" s="9" t="n">
-        <v>-8.58</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="118">
@@ -17478,10 +17474,10 @@
       </c>
       <c r="AM118" s="10" t="n"/>
       <c r="AN118" s="9" t="n">
-        <v>6.56</v>
+        <v>3.53</v>
       </c>
       <c r="AO118" s="9" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AP118" s="10" t="inlineStr">
         <is>
@@ -17489,13 +17485,13 @@
         </is>
       </c>
       <c r="AQ118" s="9" t="n">
-        <v>58.42</v>
+        <v>61.51</v>
       </c>
       <c r="AR118" s="9" t="n">
-        <v>30.42</v>
+        <v>30.18</v>
       </c>
       <c r="AS118" s="9" t="n">
-        <v>4.34</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="119">
@@ -19524,12 +19520,10 @@
       </c>
       <c r="AM132" s="10" t="n"/>
       <c r="AN132" s="15" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="AO132" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>11.04</v>
+      </c>
+      <c r="AO132" s="9" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AP132" s="10" t="inlineStr">
         <is>
@@ -19537,13 +19531,13 @@
         </is>
       </c>
       <c r="AQ132" s="9" t="n">
-        <v>66.16</v>
+        <v>67.34</v>
       </c>
       <c r="AR132" s="9" t="n">
-        <v>20.44</v>
+        <v>20.22</v>
       </c>
       <c r="AS132" s="9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="133">
@@ -19684,15 +19678,11 @@
         </is>
       </c>
       <c r="AM133" s="10" t="n"/>
-      <c r="AN133" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AO133" s="10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="AN133" s="9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AO133" s="9" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AP133" s="10" t="inlineStr">
         <is>
@@ -19700,13 +19690,13 @@
         </is>
       </c>
       <c r="AQ133" s="9" t="n">
-        <v>76.18000000000001</v>
+        <v>75.91</v>
       </c>
       <c r="AR133" s="9" t="n">
-        <v>21.29</v>
+        <v>21.39</v>
       </c>
       <c r="AS133" s="9" t="n">
-        <v>2.53</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="134">
@@ -20978,10 +20968,10 @@
       </c>
       <c r="AM142" s="10" t="n"/>
       <c r="AN142" s="9" t="n">
-        <v>1.28</v>
+        <v>2.97</v>
       </c>
       <c r="AO142" s="9" t="n">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AP142" s="10" t="inlineStr">
         <is>
@@ -20989,13 +20979,13 @@
         </is>
       </c>
       <c r="AQ142" s="9" t="n">
-        <v>79.22</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="AR142" s="9" t="n">
-        <v>12.13</v>
+        <v>11.78</v>
       </c>
       <c r="AS142" s="9" t="n">
-        <v>5.83</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="143">
@@ -21111,10 +21101,10 @@
       </c>
       <c r="AM143" s="10" t="n"/>
       <c r="AN143" s="9" t="n">
-        <v>4.6</v>
+        <v>3.16</v>
       </c>
       <c r="AO143" s="9" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AP143" s="10" t="inlineStr">
         <is>
@@ -21122,13 +21112,13 @@
         </is>
       </c>
       <c r="AQ143" s="9" t="n">
-        <v>82.51000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="AR143" s="9" t="n">
-        <v>10.75</v>
+        <v>11.43</v>
       </c>
       <c r="AS143" s="9" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="144">
@@ -22122,7 +22112,7 @@
       </c>
       <c r="AM150" s="10" t="n"/>
       <c r="AN150" s="9" t="n">
-        <v>2.6</v>
+        <v>3.68</v>
       </c>
       <c r="AO150" s="10" t="inlineStr">
         <is>
@@ -23233,7 +23223,7 @@
       </c>
       <c r="AM157" s="10" t="n"/>
       <c r="AN157" s="9" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="AO157" s="10" t="inlineStr">
         <is>
@@ -23246,13 +23236,13 @@
         </is>
       </c>
       <c r="AQ157" s="9" t="n">
-        <v>73.06999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="AR157" s="9" t="n">
-        <v>17.38</v>
+        <v>17.35</v>
       </c>
       <c r="AS157" s="9" t="n">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="158">
